--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.608137</v>
+        <v>1.444287666666667</v>
       </c>
       <c r="H2">
-        <v>1.824411</v>
+        <v>4.332863</v>
       </c>
       <c r="I2">
-        <v>0.002038596856568863</v>
+        <v>0.006189216566550864</v>
       </c>
       <c r="J2">
-        <v>0.002039483548598552</v>
+        <v>0.006202528009901729</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>0.2238444859463334</v>
+        <v>0.7318422250150001</v>
       </c>
       <c r="R2">
-        <v>2.014600373517</v>
+        <v>6.586580025135</v>
       </c>
       <c r="S2">
-        <v>5.614124998553139E-06</v>
+        <v>1.932486145345629E-05</v>
       </c>
       <c r="T2">
-        <v>5.660104739326943E-06</v>
+        <v>1.942924590537849E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.608137</v>
+        <v>1.444287666666667</v>
       </c>
       <c r="H3">
-        <v>1.824411</v>
+        <v>4.332863</v>
       </c>
       <c r="I3">
-        <v>0.002038596856568863</v>
+        <v>0.006189216566550864</v>
       </c>
       <c r="J3">
-        <v>0.002039483548598552</v>
+        <v>0.006202528009901729</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>40.997892154761</v>
+        <v>127.2882413119032</v>
       </c>
       <c r="R3">
-        <v>368.981029392849</v>
+        <v>1145.594171807129</v>
       </c>
       <c r="S3">
-        <v>0.001028246419655885</v>
+        <v>0.003361144716617333</v>
       </c>
       <c r="T3">
-        <v>0.001036667768279144</v>
+        <v>0.003379300150741419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.608137</v>
+        <v>1.444287666666667</v>
       </c>
       <c r="H4">
-        <v>1.824411</v>
+        <v>4.332863</v>
       </c>
       <c r="I4">
-        <v>0.002038596856568863</v>
+        <v>0.006189216566550864</v>
       </c>
       <c r="J4">
-        <v>0.002039483548598552</v>
+        <v>0.006202528009901729</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>1.875683638607</v>
+        <v>2.273582479846167</v>
       </c>
       <c r="R4">
-        <v>11.254101831642</v>
+        <v>13.641494879077</v>
       </c>
       <c r="S4">
-        <v>4.704302793237137E-05</v>
+        <v>6.003570841397161E-05</v>
       </c>
       <c r="T4">
-        <v>3.161887387270823E-05</v>
+        <v>4.023999670710994E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.608137</v>
+        <v>1.444287666666667</v>
       </c>
       <c r="H5">
-        <v>1.824411</v>
+        <v>4.332863</v>
       </c>
       <c r="I5">
-        <v>0.002038596856568863</v>
+        <v>0.006189216566550864</v>
       </c>
       <c r="J5">
-        <v>0.002039483548598552</v>
+        <v>0.006202528009901729</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>38.18482148197034</v>
+        <v>104.0950789723578</v>
       </c>
       <c r="R5">
-        <v>343.663393337733</v>
+        <v>936.8557107512198</v>
       </c>
       <c r="S5">
-        <v>0.0009576932839820534</v>
+        <v>0.002748711280066102</v>
       </c>
       <c r="T5">
-        <v>0.0009655368017073725</v>
+        <v>0.002763558616547822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>2.115531</v>
       </c>
       <c r="I6">
-        <v>0.002363894345393654</v>
+        <v>0.003021900187532335</v>
       </c>
       <c r="J6">
-        <v>0.002364922526256552</v>
+        <v>0.003028399532437424</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>0.259563195573</v>
+        <v>0.357323763555</v>
       </c>
       <c r="R6">
-        <v>2.336068760157</v>
+        <v>3.215913871995</v>
       </c>
       <c r="S6">
-        <v>6.509967037204949E-06</v>
+        <v>9.435411060883264E-06</v>
       </c>
       <c r="T6">
-        <v>6.563283733376452E-06</v>
+        <v>9.486377025872101E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.115531</v>
       </c>
       <c r="I7">
-        <v>0.002363894345393654</v>
+        <v>0.003021900187532335</v>
       </c>
       <c r="J7">
-        <v>0.002364922526256552</v>
+        <v>0.003028399532437424</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>47.539897417881</v>
+        <v>62.14879640339699</v>
       </c>
       <c r="R7">
-        <v>427.8590767609289</v>
+        <v>559.3391676305729</v>
       </c>
       <c r="S7">
-        <v>0.0011923229888556</v>
+        <v>0.001641087161881228</v>
       </c>
       <c r="T7">
-        <v>0.00120208812624751</v>
+        <v>0.001649951597176773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.115531</v>
       </c>
       <c r="I8">
-        <v>0.002363894345393654</v>
+        <v>0.003021900187532335</v>
       </c>
       <c r="J8">
-        <v>0.002364922526256552</v>
+        <v>0.003028399532437424</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>2.174985178047</v>
+        <v>1.1100822290415</v>
       </c>
       <c r="R8">
-        <v>13.049911068282</v>
+        <v>6.660493374248999</v>
       </c>
       <c r="S8">
-        <v>5.454965132571418E-05</v>
+        <v>2.93125820633419E-05</v>
       </c>
       <c r="T8">
-        <v>3.666427568283918E-05</v>
+        <v>1.964727720996232E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.115531</v>
       </c>
       <c r="I9">
-        <v>0.002363894345393654</v>
+        <v>0.003021900187532335</v>
       </c>
       <c r="J9">
-        <v>0.002364922526256552</v>
+        <v>0.003028399532437424</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>44.277947005677</v>
+        <v>50.82467793546</v>
       </c>
       <c r="R9">
-        <v>398.501523051093</v>
+        <v>457.4221014191399</v>
       </c>
       <c r="S9">
-        <v>0.001110511738175135</v>
+        <v>0.001342065032526882</v>
       </c>
       <c r="T9">
-        <v>0.001119606840592826</v>
+        <v>0.001349314281024817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>112.8808453333333</v>
+        <v>123.254125</v>
       </c>
       <c r="H10">
-        <v>338.642536</v>
+        <v>369.762375</v>
       </c>
       <c r="I10">
-        <v>0.3783991706858311</v>
+        <v>0.528181808895687</v>
       </c>
       <c r="J10">
-        <v>0.3785637562082736</v>
+        <v>0.5293177947110922</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>41.54944493893244</v>
+        <v>62.45471394937501</v>
       </c>
       <c r="R10">
-        <v>373.9450044503919</v>
+        <v>562.092425544375</v>
       </c>
       <c r="S10">
-        <v>0.001042079622919962</v>
+        <v>0.001649165151904399</v>
       </c>
       <c r="T10">
-        <v>0.00105061426561849</v>
+        <v>0.001658073220970009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>112.8808453333333</v>
+        <v>123.254125</v>
       </c>
       <c r="H11">
-        <v>338.642536</v>
+        <v>369.762375</v>
       </c>
       <c r="I11">
-        <v>0.3783991706858311</v>
+        <v>0.528181808895687</v>
       </c>
       <c r="J11">
-        <v>0.3785637562082736</v>
+        <v>0.5293177947110922</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>7609.924611254135</v>
+        <v>10862.65649688496</v>
       </c>
       <c r="R11">
-        <v>68489.32150128721</v>
+        <v>97763.90847196462</v>
       </c>
       <c r="S11">
-        <v>0.1908604887742889</v>
+        <v>0.2868368681712593</v>
       </c>
       <c r="T11">
-        <v>0.1924236381163618</v>
+        <v>0.2883862355158714</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>112.8808453333333</v>
+        <v>123.254125</v>
       </c>
       <c r="H12">
-        <v>338.642536</v>
+        <v>369.762375</v>
       </c>
       <c r="I12">
-        <v>0.3783991706858311</v>
+        <v>0.528181808895687</v>
       </c>
       <c r="J12">
-        <v>0.3785637562082736</v>
+        <v>0.5293177947110922</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>348.1596329508986</v>
+        <v>194.0253494066875</v>
       </c>
       <c r="R12">
-        <v>2088.957797705392</v>
+        <v>1164.152096440125</v>
       </c>
       <c r="S12">
-        <v>0.008732007360258776</v>
+        <v>0.005123389806683855</v>
       </c>
       <c r="T12">
-        <v>0.00586901505950033</v>
+        <v>0.003434042745504104</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>112.8808453333333</v>
+        <v>123.254125</v>
       </c>
       <c r="H13">
-        <v>338.642536</v>
+        <v>369.762375</v>
       </c>
       <c r="I13">
-        <v>0.3783991706858311</v>
+        <v>0.528181808895687</v>
       </c>
       <c r="J13">
-        <v>0.3785637562082736</v>
+        <v>0.5293177947110922</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>7087.769577886623</v>
+        <v>8883.374255459166</v>
       </c>
       <c r="R13">
-        <v>63789.9262009796</v>
+        <v>79950.3682991325</v>
       </c>
       <c r="S13">
-        <v>0.1777645949283636</v>
+        <v>0.2345723857658394</v>
       </c>
       <c r="T13">
-        <v>0.1792204887667931</v>
+        <v>0.2358394432287467</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.3890845</v>
+        <v>1.502435</v>
       </c>
       <c r="H14">
-        <v>0.778169</v>
+        <v>3.00487</v>
       </c>
       <c r="I14">
-        <v>0.001304289064207025</v>
+        <v>0.006438395761993292</v>
       </c>
       <c r="J14">
-        <v>0.0008699042450025715</v>
+        <v>0.00430149541795192</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>0.1432151306238333</v>
+        <v>0.761306351025</v>
       </c>
       <c r="R14">
-        <v>0.8592907837429999</v>
+        <v>4.56783810615</v>
       </c>
       <c r="S14">
-        <v>3.591902840970947E-06</v>
+        <v>2.01028845485008E-05</v>
       </c>
       <c r="T14">
-        <v>2.414213707819843E-06</v>
+        <v>1.347431436066515E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.3890845</v>
+        <v>1.502435</v>
       </c>
       <c r="H15">
-        <v>0.778169</v>
+        <v>3.00487</v>
       </c>
       <c r="I15">
-        <v>0.001304289064207025</v>
+        <v>0.006438395761993292</v>
       </c>
       <c r="J15">
-        <v>0.0008699042450025715</v>
+        <v>0.00430149541795192</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>26.2303467312285</v>
+        <v>132.4128933932016</v>
       </c>
       <c r="R15">
-        <v>157.382080387371</v>
+        <v>794.4773603592099</v>
       </c>
       <c r="S15">
-        <v>0.0006578694341383607</v>
+        <v>0.003496465128699635</v>
       </c>
       <c r="T15">
-        <v>0.0004421715943249703</v>
+        <v>0.00234356766968131</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.3890845</v>
+        <v>1.502435</v>
       </c>
       <c r="H16">
-        <v>0.778169</v>
+        <v>3.00487</v>
       </c>
       <c r="I16">
-        <v>0.001304289064207025</v>
+        <v>0.006438395761993292</v>
       </c>
       <c r="J16">
-        <v>0.0008699042450025715</v>
+        <v>0.00430149541795192</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>1.2000576032795</v>
+        <v>2.3651174014325</v>
       </c>
       <c r="R16">
-        <v>4.800230413118</v>
+        <v>9.460469605729999</v>
       </c>
       <c r="S16">
-        <v>3.009800916825115E-05</v>
+        <v>6.245275899857354E-05</v>
       </c>
       <c r="T16">
-        <v>1.348644985293966E-05</v>
+        <v>2.790671177586124E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.3890845</v>
+        <v>1.502435</v>
       </c>
       <c r="H17">
-        <v>0.778169</v>
+        <v>3.00487</v>
       </c>
       <c r="I17">
-        <v>0.001304289064207025</v>
+        <v>0.006438395761993292</v>
       </c>
       <c r="J17">
-        <v>0.0008699042450025715</v>
+        <v>0.00430149541795192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>24.43055129666784</v>
+        <v>108.2859693296333</v>
       </c>
       <c r="R17">
-        <v>146.583307780007</v>
+        <v>649.7158159777999</v>
       </c>
       <c r="S17">
-        <v>0.0006127297180594426</v>
+        <v>0.002859374989746582</v>
       </c>
       <c r="T17">
-        <v>0.0004118319871168418</v>
+        <v>0.001916546722134084</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>183.728312</v>
+        <v>106.4494656666667</v>
       </c>
       <c r="H18">
-        <v>551.184936</v>
+        <v>319.348397</v>
       </c>
       <c r="I18">
-        <v>0.6158940490479995</v>
+        <v>0.4561686785882365</v>
       </c>
       <c r="J18">
-        <v>0.6161619334718688</v>
+        <v>0.4571497823286167</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N18">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O18">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P18">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q18">
-        <v>67.62714578035467</v>
+        <v>53.93954099528499</v>
       </c>
       <c r="R18">
-        <v>608.644312023192</v>
+        <v>485.455868957565</v>
       </c>
       <c r="S18">
-        <v>0.001696120626341056</v>
+        <v>0.001424315407020336</v>
       </c>
       <c r="T18">
-        <v>0.001710011871502209</v>
+        <v>0.001432008936077932</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>183.728312</v>
+        <v>106.4494656666667</v>
       </c>
       <c r="H19">
-        <v>551.184936</v>
+        <v>319.348397</v>
       </c>
       <c r="I19">
-        <v>0.6158940490479995</v>
+        <v>0.4561686785882365</v>
       </c>
       <c r="J19">
-        <v>0.6161619334718688</v>
+        <v>0.4571497823286167</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N19">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O19">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P19">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q19">
-        <v>12386.14575523654</v>
+        <v>9381.624994814158</v>
       </c>
       <c r="R19">
-        <v>111475.3117971288</v>
+        <v>84434.62495332744</v>
       </c>
       <c r="S19">
-        <v>0.3106503616839946</v>
+        <v>0.2477290829035593</v>
       </c>
       <c r="T19">
-        <v>0.3131945913021807</v>
+        <v>0.2490672070917383</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>183.728312</v>
+        <v>106.4494656666667</v>
       </c>
       <c r="H20">
-        <v>551.184936</v>
+        <v>319.348397</v>
       </c>
       <c r="I20">
-        <v>0.6158940490479995</v>
+        <v>0.4561686785882365</v>
       </c>
       <c r="J20">
-        <v>0.6161619334718688</v>
+        <v>0.4571497823286167</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N20">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O20">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P20">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q20">
-        <v>566.675253713032</v>
+        <v>167.5716311330771</v>
       </c>
       <c r="R20">
-        <v>3400.051522278192</v>
+        <v>1005.429786798463</v>
       </c>
       <c r="S20">
-        <v>0.0142124819134232</v>
+        <v>0.004424858862318344</v>
       </c>
       <c r="T20">
-        <v>0.009552588189788791</v>
+        <v>0.002965840010104367</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>183.728312</v>
+        <v>106.4494656666667</v>
       </c>
       <c r="H21">
-        <v>551.184936</v>
+        <v>319.348397</v>
       </c>
       <c r="I21">
-        <v>0.6158940490479995</v>
+        <v>0.4561686785882365</v>
       </c>
       <c r="J21">
-        <v>0.6161619334718688</v>
+        <v>0.4571497823286167</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N21">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O21">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P21">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q21">
-        <v>11536.27027282298</v>
+        <v>7672.201176314797</v>
       </c>
       <c r="R21">
-        <v>103826.4324554068</v>
+        <v>69049.81058683318</v>
       </c>
       <c r="S21">
-        <v>0.2893350848242408</v>
+        <v>0.2025904214153385</v>
       </c>
       <c r="T21">
-        <v>0.291704742108397</v>
+        <v>0.2036847262906961</v>
       </c>
     </row>
   </sheetData>
